--- a/backend/data/all_patients.xlsx
+++ b/backend/data/all_patients.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,8 +432,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>2025-09-02</v>
+      <c r="A2">
+        <v>45902</v>
       </c>
       <c r="B2" t="str">
         <v>IP001</v>
@@ -489,9 +489,444 @@
         <v>9123456789</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2025-09-02</v>
+      </c>
+      <c r="B4" t="str">
+        <v>IP0023</v>
+      </c>
+      <c r="C4" t="str">
+        <v>3</v>
+      </c>
+      <c r="D4" t="str">
+        <v>salaar</v>
+      </c>
+      <c r="E4" t="str">
+        <v>45</v>
+      </c>
+      <c r="F4" t="str">
+        <v>9879896745</v>
+      </c>
+      <c r="G4" t="str">
+        <v>khansaar</v>
+      </c>
+      <c r="H4" t="str">
+        <v>varadha</v>
+      </c>
+      <c r="I4" t="str">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2025-09-02</v>
+      </c>
+      <c r="B5" t="str">
+        <v>IP0025</v>
+      </c>
+      <c r="C5" t="str">
+        <v>4</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Pushpa</v>
+      </c>
+      <c r="E5" t="str">
+        <v>45</v>
+      </c>
+      <c r="F5" t="str">
+        <v>1234567890</v>
+      </c>
+      <c r="G5" t="str">
+        <v>chittor</v>
+      </c>
+      <c r="H5" t="str">
+        <v>srivalli</v>
+      </c>
+      <c r="I5" t="str">
+        <v>0987654321</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2025-09-02</v>
+      </c>
+      <c r="B6" t="str">
+        <v>a2424</v>
+      </c>
+      <c r="C6" t="str">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>asdc</v>
+      </c>
+      <c r="E6" t="str">
+        <v>32</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2323232323</v>
+      </c>
+      <c r="G6" t="str">
+        <v>aadccr</v>
+      </c>
+      <c r="H6" t="str">
+        <v>crcr</v>
+      </c>
+      <c r="I6" t="str">
+        <v>2323232323</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2025-09-02</v>
+      </c>
+      <c r="B7" t="str">
+        <v>sd43</v>
+      </c>
+      <c r="C7" t="str">
+        <v>5</v>
+      </c>
+      <c r="D7" t="str">
+        <v>sdcece</v>
+      </c>
+      <c r="E7" t="str">
+        <v>54</v>
+      </c>
+      <c r="F7" t="str">
+        <v>3434343443</v>
+      </c>
+      <c r="G7" t="str">
+        <v>sac</v>
+      </c>
+      <c r="H7" t="str">
+        <v>ssdf</v>
+      </c>
+      <c r="I7" t="str">
+        <v>1212121232</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>45902</v>
+      </c>
+      <c r="B8" t="str">
+        <v>swe45</v>
+      </c>
+      <c r="C8" t="str">
+        <v>6</v>
+      </c>
+      <c r="D8" t="str">
+        <v>nxds</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>3434343434</v>
+      </c>
+      <c r="G8" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="H8" t="str">
+        <v>scrr</v>
+      </c>
+      <c r="I8">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>45902</v>
+      </c>
+      <c r="B9" t="str">
+        <v>IP0025</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="str">
+        <v>sdcece</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>3434343434</v>
+      </c>
+      <c r="G9" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="H9" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="I9">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>45902</v>
+      </c>
+      <c r="B10" t="str">
+        <v>IP0025</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="str">
+        <v>sdcece</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>3434343434</v>
+      </c>
+      <c r="G10" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="H10" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="I10">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>45902</v>
+      </c>
+      <c r="B11" t="str">
+        <v>IP0025</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="str">
+        <v>sdcece</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>3434343434</v>
+      </c>
+      <c r="G11" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="H11" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="I11">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>45902</v>
+      </c>
+      <c r="B12" t="str">
+        <v>IP0025</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="str">
+        <v>sdcece</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>3434343434</v>
+      </c>
+      <c r="G12" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="H12" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="I12">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>45902</v>
+      </c>
+      <c r="B13" t="str">
+        <v>IP0025</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="str">
+        <v>sdcece</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>3434343434</v>
+      </c>
+      <c r="G13" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="H13" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="I13">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>45902</v>
+      </c>
+      <c r="B14" t="str">
+        <v>IP0025</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="str">
+        <v>sdcece</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>3434343434</v>
+      </c>
+      <c r="G14" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="H14" t="str">
+        <v>varadha</v>
+      </c>
+      <c r="I14">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>45902</v>
+      </c>
+      <c r="B15" t="str">
+        <v>IP0025</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="str">
+        <v>sdcece</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>3434343434</v>
+      </c>
+      <c r="G15" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="H15" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="I15">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>45902</v>
+      </c>
+      <c r="B16" t="str">
+        <v>IP0025</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="str">
+        <v>sdcece</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>3434343434</v>
+      </c>
+      <c r="G16" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="H16" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="I16">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>45902</v>
+      </c>
+      <c r="B17" t="str">
+        <v>IP0025</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="str">
+        <v>sdcece</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>3434343434</v>
+      </c>
+      <c r="G17" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="H17" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="I17">
+        <v>5454545454</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>45902</v>
+      </c>
+      <c r="B18" t="str">
+        <v>IP0025</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="str">
+        <v>sdcece</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>3434343434</v>
+      </c>
+      <c r="G18" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="H18" t="str">
+        <v>s ee</v>
+      </c>
+      <c r="I18">
+        <v>5454545454</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I18"/>
   </ignoredErrors>
 </worksheet>
 </file>